--- a/脚本/result-0713-1.xlsx
+++ b/脚本/result-0713-1.xlsx
@@ -165,13 +165,13 @@
                                 distinct  PHONENUM,
                                 case when length(nvl(PHONENUM,''))=11             
                                     THEN 
-                                    case when translate(nvl(a.PHONENUM,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(PHONENUM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when length(nvl(PHONENUM,'')) in (1,11,12,13) and nvl(PHONENUM,'') REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(PHONENUM,''),'0123456789-','') &lt;&gt;'' 
+                                       case when nvl(PHONENUM,'') REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -187,13 +187,13 @@
                                 distinct  APPLICANT_PHONE,
                                 case when LENGTH(APPLICANT_PHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.APPLICANT_PHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(APPLICANT_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(APPLICANT_PHONE) in (1,11,12,13) and APPLICANT_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(APPLICANT_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when APPLICANT_PHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -208,13 +208,13 @@
                                 distinct  LINKMAN_PHONE,
                                 case when LENGTH(LINKMAN_PHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.LINKMAN_PHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LINKMAN_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LINKMAN_PHONE) in (1,11,12,13) and LINKMAN_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LINKMAN_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LINKMAN_PHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -229,13 +229,13 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(APPLICANT_MOBILE) in (1,11,12,13) and APPLICANT_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(APPLICANT_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when APPLICANT_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -250,13 +250,13 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LINKMAN_MOBILE) in (1,11,12,13) and LINKMAN_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LINKMAN_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LINKMAN_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -271,13 +271,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -293,13 +293,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -315,13 +315,13 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MOBILE) in (1,11,12,13) and MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -337,13 +337,13 @@
                                 distinct  DRIVERMOBILE,
                                 case when LENGTH(DRIVERMOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.DRIVERMOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(DRIVERMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(DRIVERMOBILE) in (1,11,12,13) and DRIVERMOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(DRIVERMOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when DRIVERMOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -359,13 +359,13 @@
                                 distinct  DRIVERPHONE,
                                 case when LENGTH(DRIVERPHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.DRIVERPHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(DRIVERPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(DRIVERPHONE) in (1,11,12,13) and DRIVERPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(DRIVERPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when DRIVERPHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -381,13 +381,13 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.TELEPHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(TELEPHONE) in (1,11,12,13) and TELEPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(TELEPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when TELEPHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -403,13 +403,13 @@
                                 distinct  LEGALMOBILE,
                                 case when LENGTH(LEGALMOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.LEGALMOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LEGALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LEGALMOBILE) in (1,11,12,13) and LEGALMOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LEGALMOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LEGALMOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -425,13 +425,13 @@
                                 distinct  PRINCIPALMOBILE,
                                 case when LENGTH(PRINCIPALMOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.PRINCIPALMOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(PRINCIPALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(PRINCIPALMOBILE) in (1,11,12,13) and PRINCIPALMOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(PRINCIPALMOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when PRINCIPALMOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -447,13 +447,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -469,13 +469,13 @@
                                 distinct  AQFZRSJ,
                                 case when LENGTH(AQFZRSJ)=11             
                                     THEN 
-                                    case when translate(nvl(a.AQFZRSJ,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(AQFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(AQFZRSJ) in (1,11,12,13) and AQFZRSJ REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(AQFZRSJ,''),'0123456789-','') &lt;&gt;'' 
+                                       case when AQFZRSJ REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -491,13 +491,13 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.CONTACTPHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CONTACTPHONE) in (1,11,12,13) and CONTACTPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CONTACTPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CONTACTPHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -513,13 +513,13 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.CONTACTPHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CONTACTPHONE) in (1,11,12,13) and CONTACTPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CONTACTPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CONTACTPHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -535,13 +535,13 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.TELEPHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(TELEPHONE) in (1,11,12,13) and TELEPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(TELEPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when TELEPHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -557,13 +557,13 @@
                                 distinct  TEL,
                                 case when LENGTH(TEL)=11             
                                     THEN 
-                                    case when translate(nvl(a.TEL,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(TEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(TEL) in (1,11,12,13) and TEL REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(TEL,''),'0123456789-','') &lt;&gt;'' 
+                                       case when TEL REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -579,13 +579,13 @@
                                 distinct  HBFZRSJ,
                                 case when LENGTH(HBFZRSJ)=11             
                                     THEN 
-                                    case when translate(nvl(a.HBFZRSJ,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(HBFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(HBFZRSJ) in (1,11,12,13) and HBFZRSJ REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(HBFZRSJ,''),'0123456789-','') &lt;&gt;'' 
+                                       case when HBFZRSJ REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -601,13 +601,13 @@
                                 distinct  QYFZRSJ,
                                 case when LENGTH(QYFZRSJ)=11             
                                     THEN 
-                                    case when translate(nvl(a.QYFZRSJ,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(QYFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(QYFZRSJ) in (1,11,12,13) and QYFZRSJ REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(QYFZRSJ,''),'0123456789-','') &lt;&gt;'' 
+                                       case when QYFZRSJ REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -623,13 +623,13 @@
                                 distinct  CUSTOMER_PHONE,
                                 case when LENGTH(CUSTOMER_PHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.CUSTOMER_PHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(CUSTOMER_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CUSTOMER_PHONE) in (1,11,12,13) and CUSTOMER_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CUSTOMER_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CUSTOMER_PHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -645,13 +645,13 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CORPORATE_MOBILE) in (1,11,12,13) and CORPORATE_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CORPORATE_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CORPORATE_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -667,13 +667,13 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MANAGER_MOBILE) in (1,11,12,13) and MANAGER_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MANAGER_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MANAGER_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -689,13 +689,13 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CORPORATE_MOBILE) in (1,11,12,13) and CORPORATE_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CORPORATE_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CORPORATE_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -711,13 +711,13 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MANAGER_MOBILE) in (1,11,12,13) and MANAGER_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MANAGER_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MANAGER_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -733,13 +733,13 @@
                                 distinct  RP_MOBILE,
                                 case when LENGTH(RP_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.RP_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(RP_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(RP_MOBILE) in (1,11,12,13) and RP_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(RP_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when RP_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -755,13 +755,13 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MANAGER_MOBILE) in (1,11,12,13) and MANAGER_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MANAGER_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MANAGER_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -777,13 +777,13 @@
                                 distinct  LEGAL_MOBILE,
                                 case when LENGTH(LEGAL_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.LEGAL_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LEGAL_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LEGAL_MOBILE) in (1,11,12,13) and LEGAL_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LEGAL_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LEGAL_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -799,13 +799,13 @@
                                 distinct  SJH,
                                 case when LENGTH(SJH)=11             
                                     THEN 
-                                    case when translate(nvl(a.SJH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(SJH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(SJH) in (1,11,12,13) and SJH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(SJH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when SJH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -821,13 +821,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                   case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -843,13 +843,13 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MOBILE) in (1,11,12,13) and MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -864,13 +864,13 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LINKMAN_MOBILE) in (1,11,12,13) and LINKMAN_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LINKMAN_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LINKMAN_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -885,13 +885,13 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when translate(nvl(a.APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(APPLICANT_MOBILE) in (1,11,12,13) and APPLICANT_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(APPLICANT_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when APPLICANT_MOBILE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -906,13 +906,13 @@
                                 distinct  START_PHONE,
                                 case when LENGTH(START_PHONE)=11             
                                     THEN 
-                                    case when translate(nvl(a.START_PHONE,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(START_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(START_PHONE) in (1,11,12,13) and START_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(START_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when START_PHONE REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -927,13 +927,13 @@
                                 distinct  PHONENUMBER,
                                 case when LENGTH(PHONENUMBER)=11             
                                     THEN 
-                                    case when translate(nvl(a.PHONENUMBER,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(PHONENUMBER,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(PHONENUMBER) in (1,11,12,13) and PHONENUMBER REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(PHONENUMBER,''),'0123456789-','') &lt;&gt;'' 
+                                       case when PHONENUMBER REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -948,13 +948,13 @@
                                 distinct  COMPANYTEL,
                                 case when LENGTH(COMPANYTEL)=11             
                                     THEN 
-                                    case when translate(nvl(a.COMPANYTEL,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(COMPANYTEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(COMPANYTEL) in (1,11,12,13) and COMPANYTEL REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(COMPANYTEL,''),'0123456789-','') &lt;&gt;'' 
+                                       case when COMPANYTEL REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -969,13 +969,13 @@
                                 distinct  SJHM,
                                 case when LENGTH(SJHM)=11             
                                     THEN 
-                                    case when translate(nvl(a.SJHM,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(SJHM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(SJHM) in (1,11,12,13) and SJHM REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(SJHM,''),'0123456789-','') &lt;&gt;'' 
+                                       case when SJHM REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -991,13 +991,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1013,13 +1013,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1035,13 +1035,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1057,13 +1057,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (1,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1175,13 +1175,13 @@
                                 distinct  PHONENUM,
                                 case when length(nvl(PHONENUM,'0'))=11             
                                     THEN 
-                                    case when PHONENUM REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(PHONENUM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when length(nvl(PHONENUM,'0')) in (10,11,12,13) and nvl(PHONENUM,'0') REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(PHONENUM,''),'0123456789-','') &lt;&gt;'' 
+                                       case when nvl(PHONENUM,'0') REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1197,13 +1197,13 @@
                                 distinct  APPLICANT_PHONE,
                                 case when LENGTH(APPLICANT_PHONE)=11             
                                     THEN 
-                                    case when APPLICANT_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(APPLICANT_PHONE) in (10,11,12,13) and APPLICANT_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(APPLICANT_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when APPLICANT_PHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1218,13 +1218,13 @@
                                 distinct  LINKMAN_PHONE,
                                 case when LENGTH(LINKMAN_PHONE)=11             
                                     THEN 
-                                    case when LINKMAN_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LINKMAN_PHONE) in (10,11,12,13) and LINKMAN_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LINKMAN_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LINKMAN_PHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1239,13 +1239,13 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when APPLICANT_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(APPLICANT_MOBILE) in (10,11,12,13) and APPLICANT_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(APPLICANT_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when APPLICANT_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1260,13 +1260,13 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when LINKMAN_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LINKMAN_MOBILE) in (10,11,12,13) and LINKMAN_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LINKMAN_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LINKMAN_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1281,13 +1281,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1303,13 +1303,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1325,13 +1325,13 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MOBILE) in (10,11,12,13) and MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1347,13 +1347,13 @@
                                 distinct  DRIVERMOBILE,
                                 case when LENGTH(DRIVERMOBILE)=11             
                                     THEN 
-                                    case when DRIVERMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(DRIVERMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(DRIVERMOBILE) in (10,11,12,13) and DRIVERMOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(DRIVERMOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when DRIVERMOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1369,13 +1369,13 @@
                                 distinct  DRIVERPHONE,
                                 case when LENGTH(DRIVERPHONE)=11             
                                     THEN 
-                                    case when DRIVERPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(DRIVERPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(DRIVERPHONE) in (10,11,12,13) and DRIVERPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(DRIVERPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when DRIVERPHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1391,13 +1391,13 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when TELEPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(TELEPHONE) in (10,11,12,13) and TELEPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(TELEPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when TELEPHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1413,13 +1413,13 @@
                                 distinct  LEGALMOBILE,
                                 case when LENGTH(LEGALMOBILE)=11             
                                     THEN 
-                                    case when LEGALMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LEGALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LEGALMOBILE) in (10,11,12,13) and LEGALMOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LEGALMOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LEGALMOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1435,13 +1435,13 @@
                                 distinct  PRINCIPALMOBILE,
                                 case when LENGTH(PRINCIPALMOBILE)=11             
                                     THEN 
-                                    case when PRINCIPALMOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(PRINCIPALMOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(PRINCIPALMOBILE) in (10,11,12,13) and PRINCIPALMOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(PRINCIPALMOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when PRINCIPALMOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1457,13 +1457,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1479,13 +1479,13 @@
                                 distinct  AQFZRSJ,
                                 case when LENGTH(AQFZRSJ)=11             
                                     THEN 
-                                    case when AQFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(AQFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(AQFZRSJ) in (10,11,12,13) and AQFZRSJ REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(AQFZRSJ,''),'0123456789-','') &lt;&gt;'' 
+                                       case when AQFZRSJ REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1501,13 +1501,13 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when CONTACTPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CONTACTPHONE) in (10,11,12,13) and CONTACTPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CONTACTPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CONTACTPHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1523,13 +1523,13 @@
                                 distinct  CONTACTPHONE,
                                 case when LENGTH(CONTACTPHONE)=11             
                                     THEN 
-                                    case when CONTACTPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CONTACTPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CONTACTPHONE) in (10,11,12,13) and CONTACTPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CONTACTPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CONTACTPHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1545,13 +1545,13 @@
                                 distinct  TELEPHONE,
                                 case when LENGTH(TELEPHONE)=11             
                                     THEN 
-                                    case when TELEPHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(TELEPHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(TELEPHONE) in (10,11,12,13) and TELEPHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(TELEPHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when TELEPHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1567,13 +1567,13 @@
                                 distinct  TEL,
                                 case when LENGTH(TEL)=11             
                                     THEN 
-                                    case when TEL REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(TEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(TEL) in (10,11,12,13) and TEL REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(TEL,''),'0123456789-','') &lt;&gt;'' 
+                                       case when TEL REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1589,13 +1589,13 @@
                                 distinct  HBFZRSJ,
                                 case when LENGTH(HBFZRSJ)=11             
                                     THEN 
-                                    case when HBFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(HBFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(HBFZRSJ) in (10,11,12,13) and HBFZRSJ REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(HBFZRSJ,''),'0123456789-','') &lt;&gt;'' 
+                                       case when HBFZRSJ REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1611,13 +1611,13 @@
                                 distinct  QYFZRSJ,
                                 case when LENGTH(QYFZRSJ)=11             
                                     THEN 
-                                    case when QYFZRSJ REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(QYFZRSJ,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(QYFZRSJ) in (10,11,12,13) and QYFZRSJ REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(QYFZRSJ,''),'0123456789-','') &lt;&gt;'' 
+                                       case when QYFZRSJ REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1633,13 +1633,13 @@
                                 distinct  CUSTOMER_PHONE,
                                 case when LENGTH(CUSTOMER_PHONE)=11             
                                     THEN 
-                                    case when CUSTOMER_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CUSTOMER_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CUSTOMER_PHONE) in (10,11,12,13) and CUSTOMER_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CUSTOMER_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CUSTOMER_PHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1655,13 +1655,13 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when CORPORATE_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CORPORATE_MOBILE) in (10,11,12,13) and CORPORATE_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CORPORATE_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CORPORATE_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1677,13 +1677,13 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MANAGER_MOBILE) in (10,11,12,13) and MANAGER_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MANAGER_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MANAGER_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1699,13 +1699,13 @@
                                 distinct  CORPORATE_MOBILE,
                                 case when LENGTH(CORPORATE_MOBILE)=11             
                                     THEN 
-                                    case when CORPORATE_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(CORPORATE_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(CORPORATE_MOBILE) in (10,11,12,13) and CORPORATE_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(CORPORATE_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when CORPORATE_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1721,13 +1721,13 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MANAGER_MOBILE) in (10,11,12,13) and MANAGER_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MANAGER_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MANAGER_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1743,13 +1743,13 @@
                                 distinct  RP_MOBILE,
                                 case when LENGTH(RP_MOBILE)=11             
                                     THEN 
-                                    case when RP_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(RP_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(RP_MOBILE) in (10,11,12,13) and RP_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(RP_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when RP_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1765,13 +1765,13 @@
                                 distinct  MANAGER_MOBILE,
                                 case when LENGTH(MANAGER_MOBILE)=11             
                                     THEN 
-                                    case when MANAGER_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MANAGER_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MANAGER_MOBILE) in (10,11,12,13) and MANAGER_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MANAGER_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MANAGER_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1787,13 +1787,13 @@
                                 distinct  LEGAL_MOBILE,
                                 case when LENGTH(LEGAL_MOBILE)=11             
                                     THEN 
-                                    case when LEGAL_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LEGAL_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LEGAL_MOBILE) in (10,11,12,13) and LEGAL_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LEGAL_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LEGAL_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1809,13 +1809,13 @@
                                 distinct  SJH,
                                 case when LENGTH(SJH)=11             
                                     THEN 
-                                    case when SJH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(SJH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(SJH) in (10,11,12,13) and SJH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(SJH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when SJH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1831,13 +1831,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when translate(nvl(a.LXDH,''),'0123456789','') &lt;&gt;''
+                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9]|(19[0-9])))\d{8}$" =FALSE
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1853,13 +1853,13 @@
                                 distinct  MOBILE,
                                 case when LENGTH(MOBILE)=11             
                                     THEN 
-                                    case when MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(MOBILE) in (10,11,12,13) and MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1874,13 +1874,13 @@
                                 distinct  LINKMAN_MOBILE,
                                 case when LENGTH(LINKMAN_MOBILE)=11             
                                     THEN 
-                                    case when LINKMAN_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LINKMAN_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LINKMAN_MOBILE) in (10,11,12,13) and LINKMAN_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LINKMAN_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LINKMAN_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1895,13 +1895,13 @@
                                 distinct  APPLICANT_MOBILE,
                                 case when LENGTH(APPLICANT_MOBILE)=11             
                                     THEN 
-                                    case when APPLICANT_MOBILE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(APPLICANT_MOBILE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(APPLICANT_MOBILE) in (10,11,12,13) and APPLICANT_MOBILE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(APPLICANT_MOBILE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when APPLICANT_MOBILE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1916,13 +1916,13 @@
                                 distinct  START_PHONE,
                                 case when LENGTH(START_PHONE)=11             
                                     THEN 
-                                    case when START_PHONE REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(START_PHONE,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(START_PHONE) in (10,11,12,13) and START_PHONE REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(START_PHONE,''),'0123456789-','') &lt;&gt;'' 
+                                       case when START_PHONE REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1937,13 +1937,13 @@
                                 distinct  PHONENUMBER,
                                 case when LENGTH(PHONENUMBER)=11             
                                     THEN 
-                                    case when PHONENUMBER REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(PHONENUMBER,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(PHONENUMBER) in (10,11,12,13) and PHONENUMBER REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(PHONENUMBER,''),'0123456789-','') &lt;&gt;'' 
+                                       case when PHONENUMBER REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1958,13 +1958,13 @@
                                 distinct  COMPANYTEL,
                                 case when LENGTH(COMPANYTEL)=11             
                                     THEN 
-                                    case when COMPANYTEL REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(COMPANYTEL,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(COMPANYTEL) in (10,11,12,13) and COMPANYTEL REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(COMPANYTEL,''),'0123456789-','') &lt;&gt;'' 
+                                       case when COMPANYTEL REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -1979,13 +1979,13 @@
                                 distinct  SJHM,
                                 case when LENGTH(SJHM)=11             
                                     THEN 
-                                    case when SJHM REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(SJHM,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(SJHM) in (10,11,12,13) and SJHM REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(SJHM,''),'0123456789-','') &lt;&gt;'' 
+                                       case when SJHM REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -2001,13 +2001,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -2023,13 +2023,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -2045,13 +2045,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
@@ -2067,13 +2067,13 @@
                                 distinct  LXDH,
                                 case when LENGTH(LXDH)=11             
                                     THEN 
-                                    case when LXDH REGEXP "^((13[0-9])|(147)|(15[0-9])|(166)|(173)|(17[5-8])|(18[0-9])|(19[0-9]))\d{8}$" =FALSE
+                                    case when translate(nvl(LXDH,''),'0123456789','') &lt;&gt;''
                                     then '号码有误'
                                 else '正确' 
                                             end                      
                                  when LENGTH(LXDH) in (10,11,12,13) and LXDH REGEXP "^.*[-].*$"
                                   THEN 
-                                       case when translate(nvl(LXDH,''),'0123456789-','') &lt;&gt;'' 
+                                       case when LXDH REGEXP  "^((0\d{2,3})-)(\d{7,8})(-(\d{3,4}))?$" =false 
                                             then '号码有误' 
                                             else '正确' 
                                             end           
